--- a/EmployeeList_20260109050922.xlsx
+++ b/EmployeeList_20260109050922.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\マイドライブ\01_ハーモニックインサイト事業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6C6B9AA-7BCC-4DA4-8F8B-B0D7B14502FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A16C54B-325A-41B9-AA30-9D59EDC0423E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13380" yWindow="2805" windowWidth="26385" windowHeight="16110" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10380" yWindow="2010" windowWidth="34785" windowHeight="18780" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EmployeeList" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="136">
   <si>
     <t>No</t>
   </si>
@@ -444,6 +444,31 @@
   </si>
   <si>
     <t>コンサルタント</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Team</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>業務改善</t>
+    <rPh sb="0" eb="4">
+      <t>ギョウムカイゼン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>製造Pkg</t>
+    <rPh sb="0" eb="2">
+      <t>セイゾウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>業務IT</t>
+    <rPh sb="0" eb="2">
+      <t>ギョウム</t>
+    </rPh>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -515,7 +540,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="176" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -524,6 +549,10 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="176" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -785,10 +814,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J20"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -802,10 +831,10 @@
     <col min="7" max="7" width="10.28515625" customWidth="1"/>
     <col min="8" max="8" width="6.28515625" customWidth="1"/>
     <col min="9" max="9" width="10.42578125" style="3" customWidth="1"/>
-    <col min="10" max="10" width="15.7109375" style="3" customWidth="1"/>
+    <col min="10" max="11" width="15.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -836,8 +865,11 @@
       <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K1" s="6" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -869,7 +901,7 @@
         <v>45017</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -900,8 +932,11 @@
       <c r="J3" s="3">
         <v>45047</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K3" s="7" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -932,8 +967,11 @@
       <c r="J4" s="3">
         <v>45108</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K4" s="7" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -964,8 +1002,11 @@
       <c r="J5" s="3">
         <v>45170</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K5" s="7" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -996,8 +1037,11 @@
       <c r="J6" s="3">
         <v>45200</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K6" s="7" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1028,8 +1072,11 @@
       <c r="J7" s="3">
         <v>45215</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K7" s="7" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1060,8 +1107,11 @@
       <c r="J8" s="3">
         <v>45231</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K8" s="7" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1092,8 +1142,11 @@
       <c r="J9" s="3">
         <v>45231</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K9" s="7" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1124,8 +1177,11 @@
       <c r="J10" s="3">
         <v>45383</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K10" s="7" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1156,8 +1212,11 @@
       <c r="J11" s="3">
         <v>45383</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K11" s="7" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1188,8 +1247,11 @@
       <c r="J12" s="3">
         <v>45413</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K12" s="7" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1220,8 +1282,11 @@
       <c r="J13" s="3">
         <v>45428</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K13" s="7" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1252,8 +1317,11 @@
       <c r="J14" s="3">
         <v>45474</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K14" s="7" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1284,8 +1352,11 @@
       <c r="J15" s="3">
         <v>45520</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K15" s="7" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1316,8 +1387,11 @@
       <c r="J16" s="3">
         <v>45536</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K16" s="7" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1348,8 +1422,11 @@
       <c r="J17" s="3">
         <v>45551</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K17" s="7" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1380,8 +1457,11 @@
       <c r="J18" s="3">
         <v>45597</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K18" s="7" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1412,8 +1492,11 @@
       <c r="J19" s="3">
         <v>45689</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K19" s="7" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1443,6 +1526,9 @@
       </c>
       <c r="J20" s="3">
         <v>45748</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>133</v>
       </c>
     </row>
   </sheetData>
@@ -1457,7 +1543,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E916D307-CA5C-43E7-A1A5-26CA645092C1}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
